--- a/downloaded_files/ARCS470_Tutorial-35205.xlsx
+++ b/downloaded_files/ARCS470_Tutorial-35205.xlsx
@@ -798,7 +798,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.640625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1999,7 +1999,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45922.7174671296</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>

--- a/downloaded_files/ARCS470_Tutorial-35205.xlsx
+++ b/downloaded_files/ARCS470_Tutorial-35205.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -222,15 +222,6 @@
     <x:t>Abdelrahman Mohamed Abdelhamid Abdelmawgoud Hablas</x:t>
   </x:si>
   <x:si>
-    <x:t>1210278</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كارين وجدى الفريد صليب حنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Karen Wagdy Alfried Saleeb</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210157</x:t>
   </x:si>
   <x:si>
@@ -303,15 +294,6 @@
     <x:t>Nour yasser El-Hassanain El-Hassanain El-Dawody</x:t>
   </x:si>
   <x:si>
-    <x:t>1210320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نوران أيمن أحمد عبد المقصود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nouran Ayman Ahmed AbdElMaksoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200930</x:t>
   </x:si>
   <x:si>
@@ -346,15 +328,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Mohamed essam el dien Mohamed huiseen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا رفاعي ربيع رفاعي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Yara Refaee Rabea Refaee</x:t>
   </x:si>
   <x:si>
     <x:t>1210397</x:t>
@@ -488,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -798,7 +771,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.640625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="53.520625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1551,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6808895833</x:v>
+        <x:v>45906.414668669</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.414668669</x:v>
+        <x:v>45906.4142403588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142403588</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45906.6723290509</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6723290509</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.4172760417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4172760417</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.9041152778</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1984,102 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45922.7174671296</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.4147703704</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45906.4148071759</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Tutorial-35205.xlsx
+++ b/downloaded_files/ARCS470_Tutorial-35205.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Wael Mohamed Mohamed Hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210315</x:t>
@@ -461,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1684,7 +1693,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4172760417</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.4172760417</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1940,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4148071759</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1957,6 +1966,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45906.4148071759</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Tutorial-35205.xlsx
+++ b/downloaded_files/ARCS470_Tutorial-35205.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Jannah Allah Emad Sayed Mohamed Elghoul</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4210192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا محمد فايد عبدالمنعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Mohamed Fayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210231</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1117,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4152533912</x:v>
+        <x:v>45906.414777581</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1149,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.414777581</x:v>
+        <x:v>45906.6649853819</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6649853819</x:v>
+        <x:v>45906.4147481481</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4147481481</x:v>
+        <x:v>45906.4146887384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4146887384</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45906.4153674421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4153674421</x:v>
+        <x:v>45906.4141916319</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4141916319</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.4143293981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45906.6651263079</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651263079</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.414668669</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.414668669</x:v>
+        <x:v>45906.4142403588</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4142403588</x:v>
+        <x:v>45906.6661830671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6661830671</x:v>
+        <x:v>45906.6723290509</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6723290509</x:v>
+        <x:v>45906.6648953356</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6648953356</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45930.3774885417</x:v>
+        <x:v>45906.4144722222</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144722222</x:v>
+        <x:v>45906.4172760417</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4172760417</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.6736037847</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6736037847</x:v>
+        <x:v>45906.4146939815</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4146939815</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4145223727</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4145223727</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4148071759</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4148071759</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS470_Tutorial-35205.xlsx
+++ b/downloaded_files/ARCS470_Tutorial-35205.xlsx
@@ -1963,11 +1963,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:14)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:14)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:14)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Thesis Writing for GP (ARCS470) Location : [20501]20501-70-الجيزة الرئيسي Time : Tuesday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
